--- a/docs/mcode/shr-core-RelationToLandmark-extension.xlsx
+++ b/docs/mcode/shr-core-RelationToLandmark-extension.xlsx
@@ -141,7 +141,7 @@
 * Specifying the location and type of landmark using a body site code and optional laterality/orientation,
 * Specifying the direction from the landmark to the body location, and
 * Specifying the distance from the landmark to the body location.
-This extension is part of the profile on body site appearing throughout the mCODE implementation guide. Body location is a flexible structure that allows the location to be determined by a single code, or a code plus laterality and/or orientation. The body location can also be specified in relation to one or more body landmarks. SNOMED CT is used in all cases.
+The RelationToLandmark element is part of BodyLocation, a flexible structure that allows the location to be determined by a single code, or a code plus laterality and/or orientation. The body location can also be specified in relation to one or more body landmarks. SNOMED CT is used in all cases.
 + Code only: The code should include (precoordinate) laterality and/orientation to the degree necessary to completely specify the body location.
 + Code plus laterality and/or orientation: The basic code augmented by codes specifying the body side and/or anatomical orientation.
 + Relation to landmark: The location relative to a landmark is specified by:
